--- a/biology/Médecine/Troisième_bruit_cardiaque/Troisième_bruit_cardiaque.xlsx
+++ b/biology/Médecine/Troisième_bruit_cardiaque/Troisième_bruit_cardiaque.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Troisi%C3%A8me_bruit_cardiaque</t>
+          <t>Troisième_bruit_cardiaque</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le troisième bruit cardiaque ou B 3 (parfois appelé S3 suivant le terme anglophone) est un bruit cardiaque supplémentaire rare qui se produit peu de temps après les deux bruits cardiaques normaux « lub-dub » (B 1 et B 2 ). B3 est associé à une insuffisance cardiaque.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Troisi%C3%A8me_bruit_cardiaque</t>
+          <t>Troisième_bruit_cardiaque</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Physiologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle survient au début du tiers moyen de la diastole, environ 0,12 à 0,18 seconde après B2[1]. 
-La présence d'un B 3 peut être normal chez les personnes de moins de 40 ans et chez certains athlètes entraînés, mais devrait disparaître avant l'âge mûr. La réapparition de ce son tard dans la vie est anormale [2] et peut indiquer des problèmes graves tels qu'une insuffisance cardiaque. Le son de B 3 est plus grave que les sons normaux, généralement faible et mieux entendu avec la cloche du stéthoscope.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle survient au début du tiers moyen de la diastole, environ 0,12 à 0,18 seconde après B2. 
+La présence d'un B 3 peut être normal chez les personnes de moins de 40 ans et chez certains athlètes entraînés, mais devrait disparaître avant l'âge mûr. La réapparition de ce son tard dans la vie est anormale  et peut indiquer des problèmes graves tels qu'une insuffisance cardiaque. Le son de B 3 est plus grave que les sons normaux, généralement faible et mieux entendu avec la cloche du stéthoscope.
 Il a également été appelé « galop ventriculaire » ou « galop protodiastolique » en raison de sa place au début de la diastole. C'est un type de rythme de galop grâce à un son supplémentaire ; l'autre rythme de galop est appelé B 4. Les deux sont assez différents, mais ils peuvent parfois se produire ensemble. Si la fréquence cardiaque est également très rapide ( tachycardie ), il peut devenir difficile de distinguer B 3 de B 4, produisant ainsi un son unique appelé « galop de sommation ». 
-Le B 3 est un son sourd et grave, mieux entendu avec la cloche placée au-dessus de l'apex cardiaque avec le patient allongé en position de décubitus latéral gauche. Ce bruit cardiaque lorsqu'il est présent chez un enfant ou un jeune adulte implique la présence d'un ventricule souple pouvant se remplir rapidement. À l’inverse, lorsqu’il est entendu chez un adulte d’âge moyen ou plus âgé, un B 3 est souvent un signe de maladie, indiquant une augmentation du remplissage ventriculaire due à une insuffisance cardiaque congestive ou à une insuffisance mitrale ou tricuspide sévère[3].
+Le B 3 est un son sourd et grave, mieux entendu avec la cloche placée au-dessus de l'apex cardiaque avec le patient allongé en position de décubitus latéral gauche. Ce bruit cardiaque lorsqu'il est présent chez un enfant ou un jeune adulte implique la présence d'un ventricule souple pouvant se remplir rapidement. À l’inverse, lorsqu’il est entendu chez un adulte d’âge moyen ou plus âgé, un B 3 est souvent un signe de maladie, indiquant une augmentation du remplissage ventriculaire due à une insuffisance cardiaque congestive ou à une insuffisance mitrale ou tricuspide sévère.
 </t>
         </is>
       </c>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Troisi%C3%A8me_bruit_cardiaque</t>
+          <t>Troisième_bruit_cardiaque</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Causes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">On pense que le B 3 est causé par l'ondulation du sang entre les parois des ventricules initiée par l'afflux de sang en provenance des oreillettes. La raison pour laquelle le troisième bruit cardiaque ne se produit pas avant le tiers moyen de la diastole est probablement due au fait que, au début de la diastole, les ventricules ne sont pas suffisamment remplis pour créer suffisamment de tension pour la réverbération. Cela peut également être le résultat d'une tension des cordes tendineuses lors d'un remplissage et d'une expansion rapides du ventricule. Des recherches récentes suggèrent que le diamètre de l'anneau de la valvule mitrale est l'un des facteurs les plus importants dans la production du son B3.
 </t>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Troisi%C3%A8me_bruit_cardiaque</t>
+          <t>Troisième_bruit_cardiaque</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,11 +592,13 @@
           <t>Associations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle est associée à une insuffisance cardiaque [4] causée par des affections qui provoquent :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est associée à une insuffisance cardiaque  causée par des affections qui provoquent :
 un remplissage ventriculaire rapide
-par Insuffisance mitrale : c'est lorsque l'un des feuillets de la valvule mitrale qui empêche généralement le sang de circuler du ventricule gauche vers l'oreillette gauche dysfonctionne, permettant au sang de refluer dans les oreillettes pendant la systole. Cela signifie que l’oreillette gauche sera trop remplie, ce qui entraînera un remplissage ventriculaire rapide lorsque la valvule mitrale s’ouvrira[5].
+par Insuffisance mitrale : c'est lorsque l'un des feuillets de la valvule mitrale qui empêche généralement le sang de circuler du ventricule gauche vers l'oreillette gauche dysfonctionne, permettant au sang de refluer dans les oreillettes pendant la systole. Cela signifie que l’oreillette gauche sera trop remplie, ce qui entraînera un remplissage ventriculaire rapide lorsque la valvule mitrale s’ouvrira.
 par pressions de remplissage élevées de l'oreillette gauche et du ventricule gauche, généralement le résultat d'un ventricule gauche raidi et dilaté
 lors d'une Communication interventriculaire - il s'agit d'un trou dans la paroi entre les deux ventricules, qui permet un remplissage rapide à partir de l'autre ventricule.
 une mauvaise fonction ventriculaire gauche
@@ -598,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Troisi%C3%A8me_bruit_cardiaque</t>
+          <t>Troisième_bruit_cardiaque</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -616,7 +634,9 @@
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La maladie elle-même n’a pas besoin d’être traitée, mais la cause sous-jacente doit plutôt être corrigée. Selon l'étiologie, le rythme de galop peut disparaître spontanément.
 </t>
